--- a/TBC/DATA/asunciones.xlsx
+++ b/TBC/DATA/asunciones.xlsx
@@ -33,9 +33,6 @@
     <t>Meses que reciben tratamiento el grupo de pacientes que mueren:</t>
   </si>
   <si>
-    <t>Duración tratamiento exitoso:</t>
-  </si>
-  <si>
     <t>Guia de practica clinica</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>fuente</t>
+  </si>
+  <si>
+    <t>Duración tratamiento:</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -409,10 +409,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -439,29 +439,29 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0.25</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0.1</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0.9</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>30</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0.8</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>3</v>
